--- a/poi/src/main/resources/三种渠道对比状态.xlsx
+++ b/poi/src/main/resources/三种渠道对比状态.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,10 +593,10 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
